--- a/biology/Neurosciences/Laurent_Itti/Laurent_Itti.xlsx
+++ b/biology/Neurosciences/Laurent_Itti/Laurent_Itti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Laurent Itti (né le 12 décembre 1970 à Tours, France ) est un neuroscientifique informatique. Il a obtenu sa master en traitement d'image de l'École nationale supérieure des télécommunications de Paris en 1994, et son doctorat en calcul et systèmes neuronaux de Caltech en 2000. Il est actuellement professeur agrégé d'informatique, de psychologie et de neurosciences à l'université de Californie du Sud, où il exerce depuis 2000.
-En tant qu'étudiant au doctorat sous la tutelle de Christof Koch, Itti a développé un modèle informatique qui simule les mécanismes cérébraux impliqués dans le déploiement de l'attention visuelle[1],[2]. Ce soi-disant modèle de saillance a été cité dans des milliers de publications évaluées par des pairs. L'implémentation logicielle de ce modèle fait partie de la boîte à outils iLab Neuromorphic Vision[3], qui est librement distribuée sous la licence publique générale GNU.
-Itti a également été très actif dans le développement d'applications de vision par ordinateur, notamment dans le contexte des véhicules autonomes (à la fois terrestres [4],[5] et sous-marins) ainsi que dans la comparaison de simulations de modèles à des mesures empiriques basées sur un large spectre de techniques, notamment suivi oculaire, psychophysique, neuroimagerie et électrophysiologie[6].
-Itti est crédité de l'auteur de plusieurs dizaines de publications évaluées par des pairs [7] et de 3 brevets de traitement d'image[8]. Il a également co-développé le progiciel Coregistration for Neuroimaging Systems [9], une suite d'outils de traitement d'images pour analyser les données de neuroimagerie, qui est couramment utilisée par plusieurs hôpitaux et laboratoires de recherche aux États-Unis et en Europe.
+En tant qu'étudiant au doctorat sous la tutelle de Christof Koch, Itti a développé un modèle informatique qui simule les mécanismes cérébraux impliqués dans le déploiement de l'attention visuelle,. Ce soi-disant modèle de saillance a été cité dans des milliers de publications évaluées par des pairs. L'implémentation logicielle de ce modèle fait partie de la boîte à outils iLab Neuromorphic Vision, qui est librement distribuée sous la licence publique générale GNU.
+Itti a également été très actif dans le développement d'applications de vision par ordinateur, notamment dans le contexte des véhicules autonomes (à la fois terrestres , et sous-marins) ainsi que dans la comparaison de simulations de modèles à des mesures empiriques basées sur un large spectre de techniques, notamment suivi oculaire, psychophysique, neuroimagerie et électrophysiologie.
+Itti est crédité de l'auteur de plusieurs dizaines de publications évaluées par des pairs  et de 3 brevets de traitement d'image. Il a également co-développé le progiciel Coregistration for Neuroimaging Systems , une suite d'outils de traitement d'images pour analyser les données de neuroimagerie, qui est couramment utilisée par plusieurs hôpitaux et laboratoires de recherche aux États-Unis et en Europe.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Neurobiologie de l'attention, Academic Press, (2005), (ISBN 0-12-375731-2)</t>
         </is>
